--- a/BDD/02 - Base de données/FICHIER EXCEL/stagiaireAfpa.xlsx
+++ b/BDD/02 - Base de données/FICHIER EXCEL/stagiaireAfpa.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\59011-15-11\Kesary_DWWM\BDD\02 - Base de données\FICHIER EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_local\Kesary_DWWM\Kesary_DWWM\BDD\02 - Base de données\FICHIER EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9583BA95-3685-4CD7-873B-E5121ADC18DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stagiaireafpa" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="115">
   <si>
     <t>adresse</t>
   </si>
@@ -358,12 +359,18 @@
   </si>
   <si>
     <t>INSERT INTO `hebergement`(`idHebergement`, `nomHebergement`) VALUES ([value-1],[value-2])</t>
+  </si>
+  <si>
+    <t>INSERT INTO `groupe`(`idGroupe`, `nomGroupe`) VALUES ([value-1],[value-2])</t>
+  </si>
+  <si>
+    <t>numGroupe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1123,7 +1130,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1164,6 +1171,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1484,41 +1493,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" customWidth="1"/>
-    <col min="21" max="21" width="25.140625" customWidth="1"/>
-    <col min="22" max="22" width="23.28515625" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" customWidth="1"/>
+    <col min="18" max="18" width="14.21875" customWidth="1"/>
+    <col min="19" max="19" width="15.88671875" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" customWidth="1"/>
+    <col min="21" max="21" width="25.109375" customWidth="1"/>
+    <col min="22" max="22" width="23.33203125" customWidth="1"/>
+    <col min="23" max="23" width="14.44140625" customWidth="1"/>
+    <col min="24" max="24" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>104</v>
       </c>
@@ -1592,7 +1602,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1636,6 +1646,10 @@
         <f>VLOOKUP(K2,$P$2:$Q$6,2,0)</f>
         <v>5</v>
       </c>
+      <c r="O2">
+        <f>VLOOKUP(T2,$R$2:$S$4,2,0)</f>
+        <v>3</v>
+      </c>
       <c r="P2" s="4" t="s">
         <v>79</v>
       </c>
@@ -1667,7 +1681,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1708,8 +1722,12 @@
         <v>86</v>
       </c>
       <c r="N3" s="30">
-        <f t="shared" ref="N3:N19" si="0">VLOOKUP(K3,$P$2:$Q$6,2,0)</f>
+        <f>VLOOKUP(K3,$P$2:$Q$6,2,0)</f>
         <v>3</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O19" si="0">VLOOKUP(T3,$R$2:$S$4,2,0)</f>
+        <v>1</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>80</v>
@@ -1742,7 +1760,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1783,6 +1801,10 @@
         <v>86</v>
       </c>
       <c r="N4" s="30">
+        <f>VLOOKUP(K4,$P$2:$Q$6,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="O4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1811,7 +1833,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1852,8 +1874,12 @@
         <v>86</v>
       </c>
       <c r="N5" s="30">
+        <f>VLOOKUP(K5,$P$2:$Q$6,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="O5" t="e">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>87</v>
@@ -1874,7 +1900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1915,610 +1941,776 @@
         <v>86</v>
       </c>
       <c r="N6" s="30">
+        <f>VLOOKUP(K6,$P$2:$Q$6,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="O6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>5</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>62100</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2">
+        <v>41518</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2">
+        <v>35085</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="30">
+        <f>VLOOKUP(K7,$P$2:$Q$6,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="O7" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>62200</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="2">
+        <v>34788</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" s="30">
+        <f>VLOOKUP(K8,$P$2:$Q$6,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="O8" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1">
+        <v>59300</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2">
+        <v>34475</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" s="30">
+        <f>VLOOKUP(K9,$P$2:$Q$6,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1">
+        <v>59870</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="2">
+        <v>41518</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="2">
+        <v>33981</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" s="30">
+        <f>VLOOKUP(K10,$P$2:$Q$6,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1">
+        <v>59100</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="2">
+        <v>35167</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="30">
+        <f>VLOOKUP(K11,$P$2:$Q$6,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="O11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1">
+        <v>62200</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="2">
+        <v>35263</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="30">
+        <f>VLOOKUP(K12,$P$2:$Q$6,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O12" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1">
+        <v>62200</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="2">
+        <v>35536</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" s="30">
+        <f>VLOOKUP(K13,$P$2:$Q$6,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="O13" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>62100</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="2">
+        <v>35142</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" s="30">
+        <f>VLOOKUP(K14,$P$2:$Q$6,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="O14" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>62100</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="2">
+        <v>34720</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" s="30">
+        <f>VLOOKUP(K15,$P$2:$Q$6,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="O15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1">
+        <v>62200</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="2">
+        <v>34473</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="N16" s="30">
+        <f>VLOOKUP(K16,$P$2:$Q$6,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="O16" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>62200</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="2">
+        <v>35371</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" s="30">
+        <f>VLOOKUP(K17,$P$2:$Q$6,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="O17" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="1">
+        <v>62930</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="2">
+        <v>35381</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18" s="30">
+        <f>VLOOKUP(K18,$P$2:$Q$6,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="O18" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S18" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="T18" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1">
+        <v>59100</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="2">
+        <v>35523</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19" s="30">
+        <f>VLOOKUP(K19,$P$2:$Q$6,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q6" s="29">
-        <v>5</v>
-      </c>
-      <c r="R6" s="1" t="s">
+      <c r="S19" s="28">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U19" t="str">
+        <f>"INSERT INTO `groupe`(`idGroupe`, `nomGroupe`) VALUES ("&amp;S19&amp;","""&amp;T19&amp;""");"</f>
+        <v>INSERT INTO `groupe`(`idGroupe`, `nomGroupe`) VALUES (1,"Informatique");</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S20" s="28">
+        <v>2</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" ref="U20:U21" si="1">"INSERT INTO `groupe`(`idGroupe`, `nomGroupe`) VALUES ("&amp;S20&amp;","""&amp;T20&amp;""");"</f>
+        <v>INSERT INTO `groupe`(`idGroupe`, `nomGroupe`) VALUES (2,"Automatisme");</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S21" s="28">
+        <v>3</v>
+      </c>
+      <c r="T21" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1">
-        <v>62100</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2">
-        <v>41518</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="2">
-        <v>35085</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" s="30">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1">
-        <v>62200</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="2">
-        <v>41883</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="2">
-        <v>34788</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8" s="30">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1">
-        <v>59300</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="2">
-        <v>41883</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="2">
-        <v>34475</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="U21" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `groupe`(`idGroupe`, `nomGroupe`) VALUES (3,"Reseau");</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="N9" s="30">
-        <f t="shared" si="0"/>
+      <c r="D26" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="1">
-        <v>59870</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="2">
-        <v>41518</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="2">
-        <v>33981</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="N10" s="30">
-        <f t="shared" si="0"/>
+      <c r="E26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1">
-        <v>59100</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="2">
-        <v>41883</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="2">
-        <v>35167</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="N11" s="30">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1">
-        <v>62200</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="2">
-        <v>41883</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="2">
-        <v>35263</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="N12" s="30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="1">
-        <v>62200</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="2">
-        <v>41883</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="2">
-        <v>35536</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="N13" s="30">
-        <f t="shared" si="0"/>
+      <c r="G26" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="1">
+        <f>VLOOKUP(T2,$R$2:$S$4,2,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1">
-        <v>62100</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="2">
-        <v>41883</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="2">
-        <v>35142</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="N14" s="30">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1">
-        <v>62100</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="2">
-        <v>41883</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="2">
-        <v>34720</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="N15" s="30">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="1">
-        <v>62200</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="2">
-        <v>41883</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="2">
-        <v>34473</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="N16" s="30">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1">
-        <v>62200</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="2">
-        <v>41883</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="2">
-        <v>35371</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="N17" s="30">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="1">
-        <v>62930</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="2">
-        <v>41883</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="2">
-        <v>35381</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="N18" s="30">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="1">
-        <v>59100</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="2">
-        <v>41883</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="2">
-        <v>35523</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="N19" s="30">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V26" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="29">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="28">
+        <v>2</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" ref="H27:H30" si="2">VLOOKUP(T3,$R$2:$S$4,2,0)</f>
+        <v>1</v>
+      </c>
       <c r="S27" s="25" t="s">
         <v>108</v>
       </c>
@@ -2529,7 +2721,29 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="29">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="28">
+        <v>3</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="S28" s="26">
         <v>1</v>
       </c>
@@ -2544,7 +2758,23 @@
         <v>INSERT INTO `formateur`(`idFormateur`, `nomFormateur`, `prenomFormateur`) VALUES (1, "Poix","Martine");</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="29">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
       <c r="S29" s="26">
         <v>2</v>
       </c>
@@ -2555,11 +2785,24 @@
         <v>97</v>
       </c>
       <c r="V29" t="str">
-        <f t="shared" ref="V29:V31" si="1">"INSERT INTO `formateur`(`idFormateur`, `nomFormateur`, `prenomFormateur`) VALUES ("&amp; S29 &amp;", """&amp; T29 &amp;""","""&amp; U29 &amp;""");"</f>
+        <f t="shared" ref="V29:V31" si="3">"INSERT INTO `formateur`(`idFormateur`, `nomFormateur`, `prenomFormateur`) VALUES ("&amp; S29 &amp;", """&amp; T29 &amp;""","""&amp; U29 &amp;""");"</f>
         <v>INSERT INTO `formateur`(`idFormateur`, `nomFormateur`, `prenomFormateur`) VALUES (2, "Dubois","Thomas");</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="29">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
       <c r="S30" s="26">
         <v>3</v>
       </c>
@@ -2570,11 +2813,11 @@
         <v>94</v>
       </c>
       <c r="V30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO `formateur`(`idFormateur`, `nomFormateur`, `prenomFormateur`) VALUES (3, "Butterdroghe","Hervé");</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="S31" s="26">
         <v>4</v>
       </c>
@@ -2585,16 +2828,16 @@
         <v>100</v>
       </c>
       <c r="V31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO `formateur`(`idFormateur`, `nomFormateur`, `prenomFormateur`) VALUES (4, "Batzic","Jean Paul");</v>
       </c>
     </row>
-    <row r="35" spans="19:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="19:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="U35" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="19:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="19:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="S36" s="35" t="s">
         <v>107</v>
       </c>
@@ -2602,7 +2845,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="19:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="19:21" x14ac:dyDescent="0.3">
       <c r="S37" s="34">
         <v>1</v>
       </c>
@@ -2614,12 +2857,16 @@
         <v>INSERT INTO `hebergement`(`idHebergement`, `nomHebergement`) VALUES (1,"AFPA");</v>
       </c>
     </row>
-    <row r="38" spans="19:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="19:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="S38" s="32">
         <v>2</v>
       </c>
       <c r="T38" s="33" t="s">
         <v>86</v>
+      </c>
+      <c r="U38" t="str">
+        <f>"INSERT INTO `hebergement`(`idHebergement`, `nomHebergement`) VALUES ("&amp;S38&amp;","""&amp;T38&amp;""");"</f>
+        <v>INSERT INTO `hebergement`(`idHebergement`, `nomHebergement`) VALUES (2,"AUTRE");</v>
       </c>
     </row>
   </sheetData>
